--- a/AAA-Luban-Excel/Datas/cha_PassiveSkills.xlsx
+++ b/AAA-Luban-Excel/Datas/cha_PassiveSkills.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16890" windowHeight="7020"/>
+    <workbookView windowWidth="24690" windowHeight="9900"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1014,7 +1014,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="3"/>

--- a/AAA-Luban-Excel/Datas/cha_PassiveSkills.xlsx
+++ b/AAA-Luban-Excel/Datas/cha_PassiveSkills.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24690" windowHeight="9900"/>
+    <workbookView windowWidth="25590" windowHeight="11200"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
   <si>
     <t>##var</t>
   </si>
@@ -47,28 +47,10 @@
     <t>int</t>
   </si>
   <si>
-    <t>string</t>
-  </si>
-  <si>
     <t>##group</t>
   </si>
   <si>
-    <t>c,s</t>
-  </si>
-  <si>
     <t>##</t>
-  </si>
-  <si>
-    <t>多元视界</t>
-  </si>
-  <si>
-    <t>获得癫狂状态或癫狂加深的同时获得3层灵视</t>
-  </si>
-  <si>
-    <t>猎手的遗赠</t>
-  </si>
-  <si>
-    <t>击杀怪物后有一定概率获得1颗手枪弹或霰弹</t>
   </si>
 </sst>
 </file>
@@ -684,7 +666,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -699,6 +681,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1014,15 +999,15 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="5" outlineLevelCol="3"/>
   <cols>
     <col min="2" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="18.2666666666667" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.2636363636364" style="1" customWidth="1"/>
     <col min="4" max="4" width="61.4" style="1" customWidth="1"/>
-    <col min="5" max="5" width="38.1333333333333" customWidth="1"/>
+    <col min="5" max="5" width="38.1363636363636" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1047,49 +1032,45 @@
         <v>5</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" s="2"/>
-      <c r="C3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="3"/>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="2:4">
       <c r="B5" s="1">
         <v>130001</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>11</v>
+      <c r="C5" s="4">
+        <v>742001</v>
+      </c>
+      <c r="D5" s="5">
+        <v>832001</v>
       </c>
     </row>
     <row r="6" spans="2:4">
       <c r="B6" s="1">
         <v>130002</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>13</v>
+      <c r="C6" s="4">
+        <v>742002</v>
+      </c>
+      <c r="D6" s="5">
+        <v>832002</v>
       </c>
     </row>
   </sheetData>

--- a/AAA-Luban-Excel/Datas/cha_PassiveSkills.xlsx
+++ b/AAA-Luban-Excel/Datas/cha_PassiveSkills.xlsx
@@ -999,7 +999,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="5" outlineLevelCol="3"/>
@@ -1056,7 +1056,7 @@
         <v>130001</v>
       </c>
       <c r="C5" s="4">
-        <v>742001</v>
+        <v>732001</v>
       </c>
       <c r="D5" s="5">
         <v>832001</v>
@@ -1067,7 +1067,7 @@
         <v>130002</v>
       </c>
       <c r="C6" s="4">
-        <v>742002</v>
+        <v>732002</v>
       </c>
       <c r="D6" s="5">
         <v>832002</v>

--- a/AAA-Luban-Excel/Datas/cha_PassiveSkills.xlsx
+++ b/AAA-Luban-Excel/Datas/cha_PassiveSkills.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25590" windowHeight="11200"/>
+    <workbookView windowWidth="27765" windowHeight="8625"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
   <si>
     <t>##var</t>
   </si>
@@ -48,6 +48,9 @@
   </si>
   <si>
     <t>##group</t>
+  </si>
+  <si>
+    <t>c,s</t>
   </si>
   <si>
     <t>##</t>
@@ -999,15 +1002,15 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="3"/>
   <cols>
     <col min="2" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="18.2636363636364" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.2666666666667" style="1" customWidth="1"/>
     <col min="4" max="4" width="61.4" style="1" customWidth="1"/>
-    <col min="5" max="5" width="38.1363636363636" customWidth="1"/>
+    <col min="5" max="5" width="38.1333333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1042,13 +1045,19 @@
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="3"/>
+      <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="2:4">
